--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Clean Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Duplications (March)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duplications (April)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Duplications Difference</t>
         </is>
@@ -490,513 +495,400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-java-keeron-admin_62000c5e-2497-4cf9-b812-857e3d240418</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.5</v>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>angular-mycareergate-hrm</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>-0.1000000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-java-keeron-admin_62000c5e-2497-4cf9-b812-857e3d240418</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.4</v>
+          <t>l3-net-moveit-business</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>net-moveit-business</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8.800000000000001</v>
+          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>net-sko-crm2.0</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1.699999999999999</v>
+        <v>1.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>-0.09999999999999987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l2-net-iam-management_AYk_XHXH_aRx5xCzLr0J</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10.5</v>
+          <t>l3-angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>angular-sln-fcsk</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>-1.699999999999999</v>
+        <v>22.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.6</v>
+          <t>l3-angular-clm-business</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>angular-clm-business</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>-5.199999999999999</v>
+        <v>19.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8.4</v>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>angular-delta-mobile</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5.199999999999999</v>
+        <v>6.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.8</v>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>react-ronreload-frontend</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>-0.1999999999999993</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23.5</v>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>angular-vorwerk-kiwi</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>-0.6999999999999993</v>
+        <v>14.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.6</v>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>28.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1.799999999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-genkiosk-web_AYmG9xwH_aRx5xCzLs0d</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.3</v>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>net-vorwerk-kiwi</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>-0.2999999999999998</v>
+        <v>23.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-genkiosk-web_AYmG9xwH_aRx5xCzLs0d</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-brandwebsite</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0.2999999999999998</v>
+        <v>27.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-0.3999999999999986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>react-ossc-business</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>-10.1</v>
+        <v>26.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-8.399999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21.8</v>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>angular-delta-erp</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>-0.5</v>
+        <v>23.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>angular-selisehr-hrm</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>5.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5.9</v>
+          <t>l3-net-lunge-business</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>net-lunge-business</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>-1</v>
+        <v>5.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>-0.2999999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22.7</v>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>net-clm-business</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>-0.09999999999999787</v>
+        <v>15.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14.3</v>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>21.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>27.7</v>
+          <t>l3-net-delta-crm</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>net-delta-crm</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>-0.3999999999999986</v>
+        <v>5.9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>-0.3000000000000007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>28.6</v>
+          <t>l3-angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>angular-ipex-business</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>1.799999999999997</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>l3-net-business-ontrex</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>-0.1000000000000005</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>l3-net-delta-crm</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>l3-net-ipex-business</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>l3-net-ipex-business</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>l3-net-lunge-business</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>-0.2999999999999998</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>l3-net-moveit-business</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>0.1000000000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>-0.09999999999999987</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>-8.399999999999999</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-10.1</v>
       </c>
     </row>
   </sheetData>

--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Clean Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duplications (March)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Duplications (April)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Duplications Difference</t>
         </is>
@@ -495,64 +500,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>react-ronreload-frontend</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E2" s="1" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>angular-delta-erp</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.1000000000000001</v>
+        <v>23.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>net-sko-crm2.0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1.7</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>net-vorwerk-kiwi</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>-0.09999999999999987</v>
+        <v>23.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="5">
@@ -563,336 +583,390 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>angular-sln-fcsk</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>22.7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>22.6</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19.8</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>angular-selisehr-hrm</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>-0.1999999999999993</v>
+        <v>5.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6.6</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>angular-mycareergate-hrm</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>l3-net-lunge-business</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8.699999999999999</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>net-lunge-business</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>5.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-0.2999999999999998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14.3</v>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-brandwebsite</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>27.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-0.3999999999999986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>28.6</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1.799999999999997</v>
+        <v>21.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-angular-clm-business</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>23.6</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>angular-clm-business</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>19.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>27.7</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>net-clm-business</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>-0.3999999999999986</v>
+        <v>15.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>react-ossc-business</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>26.9</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>net-moveit-business</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>-8.399999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-net-delta-crm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>23.5</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>net-delta-crm</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>-0.6999999999999993</v>
+        <v>5.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-0.3000000000000007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>5.9</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>angular-vorwerk-kiwi</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>-1</v>
+        <v>14.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5.3</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>react-ossc-business</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>-0.2999999999999998</v>
+        <v>26.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-8.399999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>15.4</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>angular-delta-mobile</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E17" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>21.8</v>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>-0.5</v>
+        <v>28.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1.799999999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>l3-net-delta-crm</t>
+          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>net-delta-crm</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5.9</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>net-sko-crm2.0</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>l3-angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>-10.1</v>
+        <v>1.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-0.09999999999999987</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,69 +510,69 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.699999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="E2" t="n">
-        <v>8.6</v>
+        <v>30.4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>1.799999999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-angular-clm-business</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>angular-clm-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23.5</v>
+        <v>19.8</v>
       </c>
       <c r="E3" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>-0.6999999999999993</v>
+        <v>19.6</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="E4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>22.8</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="5">
@@ -597,40 +597,40 @@
       <c r="E5" t="n">
         <v>22.6</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>angular-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.9</v>
+        <v>14.3</v>
       </c>
       <c r="E6" t="n">
-        <v>4.9</v>
+        <v>14.4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-1</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -640,23 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>21.8</v>
       </c>
       <c r="E7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>21.3</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,49 +666,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.3</v>
+        <v>23.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>-0.2999999999999998</v>
+        <v>23.5</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>angular-delta-mobile</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27.7</v>
+        <v>6.6</v>
       </c>
       <c r="E9" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>-0.3999999999999986</v>
+        <v>6.5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -718,49 +718,49 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>react-ossc-business</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21.8</v>
+        <v>26.9</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-0.5</v>
+        <v>18.5</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-8.399999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>react-ronreload-frontend</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>-0.1999999999999993</v>
+        <v>8.6</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>l3-net-lunge-business</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,49 +770,49 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>net-lunge-business</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15.4</v>
+        <v>5.3</v>
       </c>
       <c r="E12" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-0.2999999999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>15.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1</v>
+        <v>15.3</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.1000000000000001</v>
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l3-net-delta-crm</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,147 +822,147 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>net-delta-crm</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>5.9</v>
       </c>
       <c r="E14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>-0.3000000000000007</v>
+        <v>4.9</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
+          <t>net-moveit-business</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14.3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>1.1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>react-ossc-business</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="E16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>-8.399999999999999</v>
+        <v>27.3</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-0.3999999999999986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>net-sko-crm2.0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="E17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>-0.09999999999999964</v>
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>-0.09999999999999987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-mycareergate-hrm</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28.6</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>30.4</v>
+        <v>8.9</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.799999999999997</v>
+        <v>-0.09999999999999964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
+          <t>l3-net-delta-crm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>net-sko-crm2.0</t>
+          <t>net-delta-crm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>-0.09999999999999987</v>
+        <v>5.6</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>-0.3000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Duplications (March)</t>
+          <t>Duplications (first)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Duplications (April)</t>
+          <t>Duplications (second)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -500,111 +500,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.6</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>30.4</v>
+        <v>16.8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1.799999999999997</v>
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-angular-clm-business</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-clm-business</t>
+          <t>net-moveit-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.8</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="n">
-        <v>19.6</v>
+        <v>2.4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.1999999999999993</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23.5</v>
+        <v>15.3</v>
       </c>
       <c r="E4" t="n">
-        <v>22.8</v>
+        <v>15.4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.7</v>
+        <v>30.4</v>
       </c>
       <c r="E5" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-0.09999999999999787</v>
+        <v>29.8</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-0.5999999999999979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-vorwerk-kiwi_17ed2fd4-96a0-4343-81ad-9e8cf3fa6c59</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,23 +614,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-vorwerk-kiwi</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.3</v>
+        <v>23.5</v>
       </c>
       <c r="E6" t="n">
-        <v>14.4</v>
+        <v>23.4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.09999999999999964</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -640,101 +640,101 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.8</v>
+        <v>2.9</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23.6</v>
+        <v>27.3</v>
       </c>
       <c r="E8" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-mobile_AZFBJG1xgH6yUMlbiA1W</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>angular-delta-mobile</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="E9" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ossc-business_4e7c4210-63ef-4211-98a6-ca974f31e2cf</t>
+          <t>l3-wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>react-ossc-business</t>
+          <t>wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26.9</v>
+        <v>14.8</v>
       </c>
       <c r="E10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-8.399999999999999</v>
+        <v>14.7</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,23 +744,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.699999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="E11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-0.09999999999999964</v>
+        <v>18.2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,49 +770,49 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-0.2999999999999998</v>
+        <v>0.1000000000000005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.4</v>
+        <v>4.9</v>
       </c>
       <c r="E13" t="n">
-        <v>15.3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,23 +822,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5.9</v>
+        <v>21.3</v>
       </c>
       <c r="E14" t="n">
-        <v>4.9</v>
+        <v>24.2</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1</v>
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,125 +848,99 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>22.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1</v>
+        <v>22.1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.1000000000000001</v>
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>27.7</v>
+        <v>16.9</v>
       </c>
       <c r="E16" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-0.3999999999999986</v>
+        <v>16.8</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-sko-crm2.0_AY5wOQvUQHRMk2aGGAYZ</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>net-sko-crm2.0</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="E17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-0.09999999999999987</v>
+        <v>3.7</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-0.1999999999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-mycareergate-hrm_AZFGqD1LgH6yUMlbiCBA</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>angular-mycareergate-hrm</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="E18" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>l3-net-delta-crm</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>stg-aks</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>net-delta-crm</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-0.3000000000000007</v>
+        <v>6.3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-0.1000000000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,157 +500,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21.3</v>
       </c>
       <c r="E2" t="n">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-0.1999999999999993</v>
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.1</v>
+        <v>23.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.4</v>
+        <v>23.4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.3</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.3</v>
+        <v>30.4</v>
       </c>
       <c r="E4" t="n">
-        <v>15.4</v>
+        <v>29.8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>-0.5999999999999979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30.4</v>
+        <v>22.8</v>
       </c>
       <c r="E5" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>-0.5999999999999979</v>
+        <v>22.1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>net-moveit-business</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23.5</v>
+        <v>1.1</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4</v>
+        <v>2.4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-net-ipex-business</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>net-ipex-business</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.9</v>
+        <v>15.3</v>
       </c>
       <c r="E7" t="n">
-        <v>2.5</v>
+        <v>15.4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.3999999999999999</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="8">
@@ -675,92 +675,92 @@
       <c r="E8" t="n">
         <v>27.2</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.5</v>
+        <v>18.3</v>
       </c>
       <c r="E9" t="n">
-        <v>3.9</v>
+        <v>18.2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-wordpress-vorwerk-eshop</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>wordpress-vorwerk-eshop</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14.8</v>
+        <v>3.9</v>
       </c>
       <c r="E10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>3.7</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-0.1999999999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.3</v>
+        <v>6.1</v>
       </c>
       <c r="E11" t="n">
-        <v>18.2</v>
+        <v>6.2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0.1000000000000005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,75 +770,75 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.1</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>6.2</v>
+        <v>16.8</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.1000000000000005</v>
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>3.9</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.3</v>
+        <v>6.4</v>
       </c>
       <c r="E14" t="n">
-        <v>24.2</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.899999999999999</v>
+        <v>-0.1000000000000005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22.8</v>
+        <v>2.9</v>
       </c>
       <c r="E15" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>-0.6999999999999993</v>
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -883,14 +883,14 @@
       <c r="E16" t="n">
         <v>16.8</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="2" t="n">
         <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,23 +900,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="E17" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-0.1999999999999997</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.4</v>
+        <v>14.8</v>
       </c>
       <c r="E18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>-0.1000000000000005</v>
+        <v>14.7</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
   </sheetData>

--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,127 +510,127 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21.3</v>
+        <v>22.8</v>
       </c>
       <c r="E2" t="n">
-        <v>24.2</v>
+        <v>22.1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2.899999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4</v>
+        <v>24.2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-0.1000000000000014</v>
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30.4</v>
+        <v>4.9</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-0.5999999999999979</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.8</v>
+        <v>18.3</v>
       </c>
       <c r="E5" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-0.6999999999999993</v>
+        <v>18.2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>l3-wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
+          <t>wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.1</v>
+        <v>14.8</v>
       </c>
       <c r="E6" t="n">
-        <v>2.4</v>
+        <v>14.7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1.3</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -640,23 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15.3</v>
+        <v>6.1</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.09999999999999964</v>
+        <v>6.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.1000000000000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,43 +666,43 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27.3</v>
+        <v>30.4</v>
       </c>
       <c r="E8" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>-0.1000000000000014</v>
+        <v>29.8</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-0.5999999999999979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.3</v>
+        <v>16.9</v>
       </c>
       <c r="E9" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-0.1000000000000014</v>
+        <v>16.8</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="10">
@@ -727,14 +727,14 @@
       <c r="E10" t="n">
         <v>3.7</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="1" t="n">
         <v>-0.1999999999999997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,75 +744,75 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.1</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>6.2</v>
+        <v>16.8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.1000000000000005</v>
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>2.9</v>
       </c>
       <c r="E12" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-0.1999999999999993</v>
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="E13" t="n">
-        <v>3.9</v>
+        <v>6.3</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -822,23 +822,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.4</v>
+        <v>27.3</v>
       </c>
       <c r="E14" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-0.1000000000000005</v>
+        <v>27.2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-ipex-business</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,23 +848,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-ipex-business</t>
+          <t>net-moveit-business</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-0.3999999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,69 +874,69 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.9</v>
+        <v>23.5</v>
       </c>
       <c r="E16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-0.09999999999999787</v>
+        <v>23.4</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>0.09999999999999964</v>
+        <v>3.9</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l3-wordpress-vorwerk-eshop</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wordpress-vorwerk-eshop</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="E18" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0.09999999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/Duplications_comparison.xlsx
+++ b/Duplications_comparison.xlsx
@@ -500,131 +500,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-delta-erp</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22.8</v>
+        <v>16.9</v>
       </c>
       <c r="E2" t="n">
-        <v>22.1</v>
+        <v>16.8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-0.6999999999999993</v>
+        <v>-0.09999999999999787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.3</v>
+        <v>30.4</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2.899999999999999</v>
+        <v>29.8</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-0.5999999999999979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-selisehr-hrm</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.9</v>
+        <v>27.3</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>27.2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-moveit-business</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.3</v>
+        <v>21.3</v>
       </c>
       <c r="E5" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>24.2</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-wordpress-vorwerk-eshop</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wordpress-vorwerk-eshop</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>14.7</v>
+        <v>16.8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.1999999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,49 +666,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>wordpress-vorwerk-eshop</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30.4</v>
+        <v>14.8</v>
       </c>
       <c r="E8" t="n">
-        <v>29.8</v>
+        <v>14.7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-0.5999999999999979</v>
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>SELISEdigitalplatforms_l3-angular-selisehr-hrm_cabf2e67-0760-4b87-b530-f7edbc488768</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>angular-selisehr-hrm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.9</v>
+        <v>4.9</v>
       </c>
       <c r="E9" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>-0.09999999999999787</v>
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-net-delta-erp</t>
+          <t>l3-net-moveit-business</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -718,23 +718,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>net-delta-erp</t>
+          <t>net-moveit-business</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="E10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-0.1999999999999997</v>
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,92 +744,92 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>15.3</v>
       </c>
       <c r="E11" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>-0.1999999999999993</v>
+        <v>15.4</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.09999999999999964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l3-net-ipex-business</t>
+          <t>l3-net-amberg-engr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>net-ipex-business</t>
+          <t>net-amberg-engr</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>-0.3999999999999999</v>
+        <v>3.9</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-net-delta-erp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>net-delta-erp</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="E13" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>-0.1000000000000005</v>
+        <v>-0.1999999999999997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27.3</v>
+        <v>23.5</v>
       </c>
       <c r="E14" t="n">
-        <v>27.2</v>
+        <v>23.4</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>-0.1000000000000014</v>
@@ -838,105 +838,105 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-moveit-business</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-moveit-business</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.1</v>
+        <v>18.3</v>
       </c>
       <c r="E15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>1.3</v>
+        <v>18.2</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-0.1000000000000014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-delta-erp_AZFBCY8TgH6yUMlbiA0m</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-delta-erp</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="E16" t="n">
-        <v>23.4</v>
+        <v>22.1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.1000000000000014</v>
+        <v>-0.6999999999999993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-net-amberg-engr</t>
+          <t>l3-net-ipex-business</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>net-amberg-engr</t>
+          <t>net-ipex-business</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="E17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.3999999999999999</v>
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15.3</v>
+        <v>6.4</v>
       </c>
       <c r="E18" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0.09999999999999964</v>
+        <v>6.3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-0.1000000000000005</v>
       </c>
     </row>
   </sheetData>
